--- a/Recycling/Met_rec_tech/metrec_tech_Max_target_Min.xlsx
+++ b/Recycling/Met_rec_tech/metrec_tech_Max_target_Min.xlsx
@@ -137,7 +137,7 @@
     <t>Dysprosium</t>
   </si>
   <si>
-    <t>Copper ores and concentrates</t>
+    <t>Copper</t>
   </si>
   <si>
     <t>Raw silicon</t>
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>2.316503297930434E-12</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -677,10 +677,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1.555873368892486E-13</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -690,13 +690,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>3.945597282497727E-08</v>
+      </c>
+      <c r="E7">
         <v>2.065913537685935</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>2.935211635384008E-10</v>
-      </c>
-      <c r="F7">
-        <v>3.945597282497727E-08</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -706,10 +706,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5.505437463094785</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -776,10 +776,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>470.8969592021292</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -792,10 +792,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>31.62767085069982</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -805,13 +805,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>339605.7362506218</v>
+      </c>
+      <c r="E7">
         <v>974766.9180761706</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>59666.7500949332</v>
-      </c>
-      <c r="F7">
-        <v>339605.7362506218</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -821,10 +821,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2597649.035483413</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -891,10 +891,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>576.5762887621124</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -907,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>38.72559532383512</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -920,13 +920,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>416953.8407813212</v>
+      </c>
+      <c r="E7">
         <v>1004819.749185272</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>73057.24248150433</v>
-      </c>
-      <c r="F7">
-        <v>416953.8407813212</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -936,10 +936,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2677736.599286029</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1006,10 +1006,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>4.731736663279865E-11</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>3.178058528812169E-12</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1035,13 +1035,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>6.846943405668826E-07</v>
+      </c>
+      <c r="E7">
         <v>4.440937928619271</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>5.99552287365198E-09</v>
-      </c>
-      <c r="F7">
-        <v>6.846943405668826E-07</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1051,10 +1051,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>11.83462211631818</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1121,10 +1121,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>7.789534823874059E-10</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1137,10 +1137,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>5.231820649404585E-11</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1150,13 +1150,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>9.665652477991168E-06</v>
+      </c>
+      <c r="E7">
         <v>9.844985716100817</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>9.870019727444684E-08</v>
-      </c>
-      <c r="F7">
-        <v>9.665652477991168E-06</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1166,10 +1166,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>26.23582845861299</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1236,10 +1236,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>8.683468955440809E-09</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1252,10 +1252,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>5.832229166021557E-10</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1265,13 +1265,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>9.361674511600425E-05</v>
+      </c>
+      <c r="E7">
         <v>18.20076253529074</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1.10027122069183E-06</v>
-      </c>
-      <c r="F7">
-        <v>9.361674511600425E-05</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1281,10 +1281,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>48.50307531791525</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1351,10 +1351,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>8.708066099026114E-08</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1367,10 +1367,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>5.848749773045683E-09</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1380,13 +1380,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0.0008274785729912986</v>
+      </c>
+      <c r="E7">
         <v>36.21587700979318</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1.103387893226391E-05</v>
-      </c>
-      <c r="F7">
-        <v>0.0008274785729912986</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1396,10 +1396,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>96.51141851361417</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1466,10 +1466,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>7.016556090412808E-07</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1482,10 +1482,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>4.712651508921573E-08</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1495,13 +1495,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0.005959168652609296</v>
+      </c>
+      <c r="E7">
         <v>67.62094515763684</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>8.890588282478963E-05</v>
-      </c>
-      <c r="F7">
-        <v>0.005959168652609296</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1511,10 +1511,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>180.2025486399263</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1581,10 +1581,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>4.024767237099311E-06</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1597,10 +1597,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>2.703224366565032E-07</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1610,13 +1610,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0.03094525581657023</v>
+      </c>
+      <c r="E7">
         <v>102.609327004173</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.0005099730975820529</v>
-      </c>
-      <c r="F7">
-        <v>0.03094525581657023</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1626,10 +1626,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>273.4428245165005</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1696,10 +1696,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>2.402750592236407E-05</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1.613801138073553E-06</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1725,13 +1725,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0.1691741041622169</v>
+      </c>
+      <c r="E7">
         <v>180.9752324819077</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.003044494476463253</v>
-      </c>
-      <c r="F7">
-        <v>0.1691741041622169</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1741,10 +1741,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>482.2795371747304</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1811,10 +1811,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.0001301212767889671</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1827,10 +1827,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>8.73956145294992E-06</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1840,13 +1840,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0.8475002815055133</v>
+      </c>
+      <c r="E7">
         <v>317.0820078370012</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.01648750018975665</v>
-      </c>
-      <c r="F7">
-        <v>0.8475002815055133</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1856,10 +1856,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>844.9894600983647</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1926,10 +1926,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.0006494590182213578</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1942,10 +1942,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>4.362074474663731E-05</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1955,13 +1955,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>3.947810574157083</v>
+      </c>
+      <c r="E7">
         <v>551.7455272818795</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.08229211970867874</v>
-      </c>
-      <c r="F7">
-        <v>3.947810574157083</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1971,10 +1971,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1470.342509781466</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2156,10 +2156,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.002677006083244694</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2172,10 +2172,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.0001798004119832114</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2185,13 +2185,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>15.30410629467126</v>
+      </c>
+      <c r="E7">
         <v>843.773918996196</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.3392000093655625</v>
-      </c>
-      <c r="F7">
-        <v>15.30410629467126</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2201,10 +2201,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2248.566776529909</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2271,10 +2271,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.01092691809276084</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2287,10 +2287,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.0007339035899402641</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2300,13 +2300,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>59.1364492371918</v>
+      </c>
+      <c r="E7">
         <v>1347.098499295436</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1.384535785181637</v>
-      </c>
-      <c r="F7">
-        <v>59.1364492371918</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2316,10 +2316,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3589.872668537259</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2386,10 +2386,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.04199204556628398</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2402,10 +2402,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.002820384735056096</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2415,13 +2415,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>216.2588330678014</v>
+      </c>
+      <c r="E7">
         <v>2119.982452460448</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>5.320758267421798</v>
-      </c>
-      <c r="F7">
-        <v>216.2588330678014</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2431,10 +2431,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5649.525307798059</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2501,10 +2501,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.1295165753270724</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2517,10 +2517,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.008698946837743762</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2530,13 +2530,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>636.5609120818606</v>
+      </c>
+      <c r="E7">
         <v>2791.092151611984</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>16.41087924263894</v>
-      </c>
-      <c r="F7">
-        <v>636.5609120818606</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2546,10 +2546,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>7437.960502280447</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2616,10 +2616,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.4311120133685508</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2632,10 +2632,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.02895552539074746</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2645,13 +2645,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>2017.927289323816</v>
+      </c>
+      <c r="E7">
         <v>4130.815791291498</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>54.62565060553592</v>
-      </c>
-      <c r="F7">
-        <v>2017.927289323816</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2661,10 +2661,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>11008.17996284269</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2731,10 +2731,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1.30042899502593</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2747,10 +2747,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.08734297263051959</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2760,13 +2760,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>5716.130498727963</v>
+      </c>
+      <c r="E7">
         <v>5812.403090865048</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>164.7756910426583</v>
-      </c>
-      <c r="F7">
-        <v>5716.130498727963</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2776,10 +2776,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>15489.42932185822</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2846,10 +2846,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>3.563727851619557</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2862,10 +2862,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.2393568471613637</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2875,13 +2875,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>14114.18527507293</v>
+      </c>
+      <c r="E7">
         <v>7996.274591026693</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>451.5553880178375</v>
-      </c>
-      <c r="F7">
-        <v>14114.18527507293</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2891,10 +2891,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>21309.2120728064</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2961,10 +2961,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>8.328962183566732</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2977,10 +2977,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.5594125621794491</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2990,13 +2990,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>27177.6651899186</v>
+      </c>
+      <c r="E7">
         <v>10769.11955941022</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1055.352122041858</v>
-      </c>
-      <c r="F7">
-        <v>27177.6651899186</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3006,10 +3006,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>28698.54579361252</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3076,10 +3076,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>14.58155776136214</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3092,10 +3092,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.9793665054627599</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3105,13 +3105,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>35698.48256425708</v>
+      </c>
+      <c r="E7">
         <v>14213.49149027975</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1847.610492996563</v>
-      </c>
-      <c r="F7">
-        <v>35698.48256425708</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3121,10 +3121,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>37877.42667082568</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3191,10 +3191,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>15.76517308043234</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3207,10 +3207,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1.058863718162597</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3220,13 +3220,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>34794.03325540856</v>
+      </c>
+      <c r="E7">
         <v>18401.00461638045</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1997.584872893083</v>
-      </c>
-      <c r="F7">
-        <v>34794.03325540856</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3236,10 +3236,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>49036.69893517187</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3335,10 +3335,10 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>4.53293788046608E-06</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3351,10 +3351,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1.207979209669774E-05</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3421,10 +3421,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>9.737622635000537</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3437,10 +3437,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.6540248722139738</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3450,13 +3450,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>33801.46575328701</v>
+      </c>
+      <c r="E7">
         <v>23385.15543750483</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1233.841682192615</v>
-      </c>
-      <c r="F7">
-        <v>33801.46575328701</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3466,10 +3466,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>62318.92500696995</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3536,10 +3536,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>6.257823496668776</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3552,10 +3552,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.4203050750842914</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3565,13 +3565,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>35654.86185950292</v>
+      </c>
+      <c r="E7">
         <v>29195.13151906748</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>792.9207938538935</v>
-      </c>
-      <c r="F7">
-        <v>35654.86185950292</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3581,10 +3581,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>77801.88660997502</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3651,10 +3651,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>9.693240679437029</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3667,10 +3667,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.6510439698003087</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3680,13 +3680,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>37874.69764780582</v>
+      </c>
+      <c r="E7">
         <v>35831.77303046194</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1228.218101492881</v>
-      </c>
-      <c r="F7">
-        <v>37874.69764780582</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3696,10 +3696,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>95487.82270529072</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3766,10 +3766,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>14.75465583050979</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3782,10 +3782,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.9909925919109914</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3795,13 +3795,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>39849.47448817774</v>
+      </c>
+      <c r="E7">
         <v>43267.60263884778</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1869.543527457536</v>
-      </c>
-      <c r="F7">
-        <v>39849.47448817774</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3811,10 +3811,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>115303.5091550981</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3881,10 +3881,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>20.57175920530153</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3897,10 +3897,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1.381696815514686</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3910,13 +3910,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>41327.92618196723</v>
+      </c>
+      <c r="E7">
         <v>51453.86746663567</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>2606.62123959266</v>
-      </c>
-      <c r="F7">
-        <v>41327.92618196723</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3926,10 +3926,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>137119.0247822435</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3996,10 +3996,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>28.86821746387248</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4012,10 +4012,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1.938926260090521</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4025,13 +4025,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>44454.76667370475</v>
+      </c>
+      <c r="E7">
         <v>60338.41414177453</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>3657.854830962511</v>
-      </c>
-      <c r="F7">
-        <v>44454.76667370475</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4041,10 +4041,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>160795.3864574336</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4111,10 +4111,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>35.41124969588479</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4127,10 +4127,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>2.378387305135786</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4140,13 +4140,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>45830.89675799718</v>
+      </c>
+      <c r="E7">
         <v>69898.63410099776</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>4486.914058085265</v>
-      </c>
-      <c r="F7">
-        <v>45830.89675799718</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4156,10 +4156,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>186272.3447903024</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4226,10 +4226,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>40.76916143844392</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4242,10 +4242,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>2.73825004310692</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4255,13 +4255,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>44754.89957617316</v>
+      </c>
+      <c r="E7">
         <v>80193.02850748245</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>5165.808187101628</v>
-      </c>
-      <c r="F7">
-        <v>44754.89957617316</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4271,10 +4271,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>213705.7990910168</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4341,10 +4341,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>60.33930315434922</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4357,10 +4357,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>4.052673482453275</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4370,13 +4370,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>45597.56402139275</v>
+      </c>
+      <c r="E7">
         <v>91432.30425031658</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>7645.515758507134</v>
-      </c>
-      <c r="F7">
-        <v>45597.56402139275</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4386,10 +4386,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>243657.2605650342</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4456,10 +4456,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>99.6789790342236</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4472,10 +4472,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>6.694912502662807</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4485,13 +4485,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>45901.16052832755</v>
+      </c>
+      <c r="E7">
         <v>104065.5667256584</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>12630.19566282689</v>
-      </c>
-      <c r="F7">
-        <v>45901.16052832755</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4501,10 +4501,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>277323.5468079533</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4600,10 +4600,10 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>0.0003318251032123491</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4616,10 +4616,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.0008842782241830112</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4686,10 +4686,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>146.1139382650874</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4702,10 +4702,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>9.813704369588047</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4715,13 +4715,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>47140.53906835824</v>
+      </c>
+      <c r="E7">
         <v>118868.7505275562</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>18513.90982566797</v>
-      </c>
-      <c r="F7">
-        <v>47140.53906835824</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4731,10 +4731,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>316772.4400890018</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4801,10 +4801,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>196.1044034498403</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4817,10 +4817,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>13.1713008620684</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4830,13 +4830,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>49423.88342055275</v>
+      </c>
+      <c r="E7">
         <v>137014.2372687132</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>24848.13759040445</v>
-      </c>
-      <c r="F7">
-        <v>49423.88342055275</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4846,10 +4846,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>365128.2113584781</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4916,10 +4916,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>204.9206802106166</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4932,10 +4932,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>13.76344378010923</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4945,13 +4945,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>49142.14723771701</v>
+      </c>
+      <c r="E7">
         <v>160095.3987312503</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>25965.23671787451</v>
-      </c>
-      <c r="F7">
-        <v>49142.14723771701</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4961,10 +4961,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>426637.0251057983</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5031,10 +5031,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>177.7021518600835</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5047,10 +5047,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>11.9353184569606</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5060,13 +5060,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>46037.87963463586</v>
+      </c>
+      <c r="E7">
         <v>190079.7695936415</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>22516.41187985723</v>
-      </c>
-      <c r="F7">
-        <v>46037.87963463586</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5076,10 +5076,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>506542.1497113719</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5146,10 +5146,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>172.1770101256622</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5162,10 +5162,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>11.56422376041419</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5175,13 +5175,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>41464.53593200685</v>
+      </c>
+      <c r="E7">
         <v>229173.4455218954</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>21816.32825293092</v>
-      </c>
-      <c r="F7">
-        <v>41464.53593200685</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5191,10 +5191,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>610722.5929387183</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5261,10 +5261,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>158.927496536582</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5277,10 +5277,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>10.67432365267655</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5290,13 +5290,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>41044.16899072978</v>
+      </c>
+      <c r="E7">
         <v>279597.0263048578</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>20137.49936956213</v>
-      </c>
-      <c r="F7">
-        <v>41044.16899072978</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5306,10 +5306,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>745096.0144793199</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5376,10 +5376,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>139.5338941220303</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5392,10 +5392,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>9.371757429237656</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5405,13 +5405,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>47861.77467191804</v>
+      </c>
+      <c r="E7">
         <v>343295.1796108127</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>17680.16086673938</v>
-      </c>
-      <c r="F7">
-        <v>47861.77467191804</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5421,10 +5421,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>914844.7445899558</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5491,10 +5491,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>120.514566701168</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5507,10 +5507,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>8.094329287658764</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5520,13 +5520,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>65529.19700800903</v>
+      </c>
+      <c r="E7">
         <v>421618.8211390856</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>15270.24626861348</v>
-      </c>
-      <c r="F7">
-        <v>65529.19700800903</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5536,10 +5536,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1123568.828366841</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5606,10 +5606,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>137.4874471241776</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5622,10 +5622,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>9.234308352965938</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5635,13 +5635,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>102059.7381752461</v>
+      </c>
+      <c r="E7">
         <v>515023.0129832349</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>17420.85819082</v>
-      </c>
-      <c r="F7">
-        <v>102059.7381752461</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5651,10 +5651,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1372480.957363716</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5721,10 +5721,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>214.383043663836</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5737,10 +5737,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>14.39898094151965</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5750,13 +5750,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>156675.2149052841</v>
+      </c>
+      <c r="E7">
         <v>622814.5607056092</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>27164.20066197663</v>
-      </c>
-      <c r="F7">
-        <v>156675.2149052841</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5766,10 +5766,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1659733.842932417</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5865,10 +5865,10 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>0.004002735610512679</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5881,10 +5881,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.01066686005149271</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5951,10 +5951,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>305.4652622278017</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5967,10 +5967,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>20.51649428026278</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5980,13 +5980,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>220669.8296447185</v>
+      </c>
+      <c r="E7">
         <v>742969.636987115</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>38705.11182512446</v>
-      </c>
-      <c r="F7">
-        <v>220669.8296447185</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5996,10 +5996,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1979934.202857537</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6066,10 +6066,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>427.0798897347783</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6082,10 +6082,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>28.6847088636364</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6095,13 +6095,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>310390.1245091937</v>
+      </c>
+      <c r="E7">
         <v>872036.1481705678</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>54114.74538836101</v>
-      </c>
-      <c r="F7">
-        <v>310390.1245091937</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6111,10 +6111,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2323882.578691426</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6181,10 +6181,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>608.0056574765251</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6197,10 +6197,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>40.83654063643385</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6210,13 +6210,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>442077.4555641076</v>
+      </c>
+      <c r="E7">
         <v>1005144.158361147</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>77039.61750448556</v>
-      </c>
-      <c r="F7">
-        <v>442077.4555641076</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6226,10 +6226,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2678601.114861175</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6296,10 +6296,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>734.2362058146903</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6312,10 +6312,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>49.31478233267961</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6325,13 +6325,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>533842.584728549</v>
+      </c>
+      <c r="E7">
         <v>1136163.049759469</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>93034.12847945817</v>
-      </c>
-      <c r="F7">
-        <v>533842.584728549</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6341,10 +6341,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3027752.374059284</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6411,10 +6411,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>749.5371888709997</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6427,10 +6427,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>50.34246884952834</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6440,13 +6440,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>546306.8633722285</v>
+      </c>
+      <c r="E7">
         <v>1258048.409122993</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>94972.89642940312</v>
-      </c>
-      <c r="F7">
-        <v>546306.8633722285</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6456,10 +6456,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3352563.752368151</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6526,10 +6526,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>740.1628514538226</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6542,10 +6542,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>49.71284393375858</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6555,13 +6555,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>541467.4078132069</v>
+      </c>
+      <c r="E7">
         <v>1363399.159486895</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>93785.08615149432</v>
-      </c>
-      <c r="F7">
-        <v>541467.4078132069</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6571,10 +6571,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3633312.175396659</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6641,10 +6641,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>721.3124903179443</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6657,10 +6657,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>48.44676436842744</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6670,13 +6670,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>530250.4703752322</v>
+      </c>
+      <c r="E7">
         <v>1445194.649275189</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>91396.58105475424</v>
-      </c>
-      <c r="F7">
-        <v>530250.4703752322</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6686,10 +6686,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3851288.361513853</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6756,10 +6756,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>694.5259329258577</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6772,10 +6772,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>46.64765226149059</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6785,13 +6785,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>511975.5968749435</v>
+      </c>
+      <c r="E7">
         <v>1497617.748154242</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>88002.49070317231</v>
-      </c>
-      <c r="F7">
-        <v>511975.5968749435</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6801,10 +6801,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3990990.283804143</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6871,10 +6871,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>673.7494466782269</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6887,10 +6887,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>45.25220500783335</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6900,13 +6900,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>496034.3515846265</v>
+      </c>
+      <c r="E7">
         <v>1516819.160646703</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>85369.9287624695</v>
-      </c>
-      <c r="F7">
-        <v>496034.3515846265</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6916,10 +6916,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4042159.983673938</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6986,10 +6986,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>656.6090979100179</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7002,10 +7002,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>44.10097797501147</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7015,13 +7015,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>481496.5748829323</v>
+      </c>
+      <c r="E7">
         <v>1501464.975724858</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>83198.09714090719</v>
-      </c>
-      <c r="F7">
-        <v>481496.5748829323</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7031,10 +7031,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4001242.731648619</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7130,10 +7130,10 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>0.02207902254521261</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7146,10 +7146,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.05883822127671582</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7216,10 +7216,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>607.5106860237078</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7232,10 +7232,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>40.80329600852897</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7245,13 +7245,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>443706.3122162422</v>
+      </c>
+      <c r="E7">
         <v>1452946.949857632</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>76976.90030616382</v>
-      </c>
-      <c r="F7">
-        <v>443706.3122162422</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7261,10 +7261,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3871947.409084433</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7331,10 +7331,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>487.8178183341999</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7347,10 +7347,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>32.76415591963498</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7360,13 +7360,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>354993.3902781351</v>
+      </c>
+      <c r="E7">
         <v>1375217.070843093</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>61810.77046604682</v>
-      </c>
-      <c r="F7">
-        <v>354993.3902781351</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7376,10 +7376,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3664805.638568804</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7446,10 +7446,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>299.4397220639817</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7462,10 +7462,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>20.11179045435176</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7475,13 +7475,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>214687.8860197044</v>
+      </c>
+      <c r="E7">
         <v>1274307.286244317</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>37941.6233546302</v>
-      </c>
-      <c r="F7">
-        <v>214687.8860197044</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7491,10 +7491,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3395891.911837911</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7561,10 +7561,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>180.5824065477732</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7577,10 +7577,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>12.12877000819335</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7590,13 +7590,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>116227.4401017925</v>
+      </c>
+      <c r="E7">
         <v>1157670.437918566</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>22881.36525936371</v>
-      </c>
-      <c r="F7">
-        <v>116227.4401017925</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7606,10 +7606,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3085067.251155759</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7676,10 +7676,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>191.6374802718527</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7692,10 +7692,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>12.87128113752371</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7705,13 +7705,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>101130.4622189386</v>
+      </c>
+      <c r="E7">
         <v>1033492.749480073</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>24282.13948031718</v>
-      </c>
-      <c r="F7">
-        <v>101130.4622189386</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7721,10 +7721,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2754147.062319801</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7791,10 +7791,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>221.0860206009021</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7807,10 +7807,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>14.84918463076105</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7820,13 +7820,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>96555.35396408869</v>
+      </c>
+      <c r="E7">
         <v>910074.167789226</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>28013.52627765627</v>
-      </c>
-      <c r="F7">
-        <v>96555.35396408869</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7836,10 +7836,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2425249.811351641</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7906,10 +7906,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>232.4554963128485</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7922,10 +7922,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>15.61281248720707</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7935,13 +7935,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>85008.88772002237</v>
+      </c>
+      <c r="E7">
         <v>795286.212888935</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>29454.1379714853</v>
-      </c>
-      <c r="F7">
-        <v>85008.88772002237</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7951,10 +7951,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2119352.252866224</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8021,10 +8021,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>214.5215337746451</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8037,10 +8037,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>14.40828259351623</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8050,13 +8050,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>65523.51334698466</v>
+      </c>
+      <c r="E7">
         <v>696061.3542794914</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>27181.74856639772</v>
-      </c>
-      <c r="F7">
-        <v>65523.51334698466</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8066,10 +8066,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1854928.672743599</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8136,10 +8136,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>186.4764169860618</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8152,10 +8152,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>12.52463967456077</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8165,13 +8165,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>50772.81827392114</v>
+      </c>
+      <c r="E7">
         <v>617889.2071170191</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>23628.18776693344</v>
-      </c>
-      <c r="F7">
-        <v>50772.81827392114</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8181,10 +8181,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1646608.305163792</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8251,10 +8251,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>170.6483640344812</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8267,10 +8267,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>11.46155264633225</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8280,13 +8280,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>48506.36765662392</v>
+      </c>
+      <c r="E7">
         <v>564378.2643216436</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>21622.6354661679</v>
-      </c>
-      <c r="F7">
-        <v>48506.36765662392</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8296,10 +8296,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1504007.395795063</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8395,10 +8395,10 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>0.08650422914908529</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8411,10 +8411,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.2305244702578206</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8481,10 +8481,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>159.6404109239587</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8497,10 +8497,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>10.72220636066193</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8510,13 +8510,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>52741.55500574659</v>
+      </c>
+      <c r="E7">
         <v>537015.2638824501</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>20227.83183775807</v>
-      </c>
-      <c r="F7">
-        <v>52741.55500574659</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8526,10 +8526,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1431087.941533024</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8596,10 +8596,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>151.4663634345212</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8612,10 +8612,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>10.17319860331315</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8625,13 +8625,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>65621.64987918455</v>
+      </c>
+      <c r="E7">
         <v>535243.6371423554</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>19192.10875803643</v>
-      </c>
-      <c r="F7">
-        <v>65621.64987918455</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8641,10 +8641,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1426366.74674553</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8711,10 +8711,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>156.5613965571603</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8727,10 +8727,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>10.51540516767339</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8740,13 +8740,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>90892.65388081488</v>
+      </c>
+      <c r="E7">
         <v>556874.0867251131</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>19837.69387408603</v>
-      </c>
-      <c r="F7">
-        <v>90892.65388081488</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8756,10 +8756,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1484009.569305222</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8826,10 +8826,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>190.2844374697774</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8842,10 +8842,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>12.78040437233191</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8855,13 +8855,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>131759.8051258664</v>
+      </c>
+      <c r="E7">
         <v>598696.5446115411</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>24110.69716122477</v>
-      </c>
-      <c r="F7">
-        <v>131759.8051258664</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8871,10 +8871,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1595461.923068562</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8941,10 +8941,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>260.826708639729</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8957,10 +8957,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>17.51835752752814</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8970,13 +8970,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>189211.5335041735</v>
+      </c>
+      <c r="E7">
         <v>657078.6974584714</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>33049.01791861113</v>
-      </c>
-      <c r="F7">
-        <v>189211.5335041735</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8986,10 +8986,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1751044.083500911</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9056,10 +9056,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>361.3158162225006</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9072,10 +9072,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>24.26768210183321</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9085,13 +9085,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>262348.1448028346</v>
+      </c>
+      <c r="E7">
         <v>728369.6056647038</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>45781.86393138483</v>
-      </c>
-      <c r="F7">
-        <v>262348.1448028346</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9101,10 +9101,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1941026.689092564</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9171,10 +9171,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>481.4703690463509</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9187,10 +9187,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>32.33783115177548</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9200,13 +9200,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>349690.8218267241</v>
+      </c>
+      <c r="E7">
         <v>809052.7924130489</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>61006.49330307672</v>
-      </c>
-      <c r="F7">
-        <v>349690.8218267241</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9216,10 +9216,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2156038.707196556</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9286,10 +9286,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>606.2018295294477</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9302,10 +9302,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>40.7153870051211</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9315,13 +9315,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>440896.6260747249</v>
+      </c>
+      <c r="E7">
         <v>895722.5457952432</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>76811.05677749576</v>
-      </c>
-      <c r="F7">
-        <v>440896.6260747249</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9331,10 +9331,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2387004.281739424</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9401,10 +9401,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>700.0866314457813</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9417,10 +9417,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>47.02113512021644</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9430,13 +9430,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>509809.1490524276</v>
+      </c>
+      <c r="E7">
         <v>985009.1111422987</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>88707.07968481221</v>
-      </c>
-      <c r="F7">
-        <v>509809.1490524276</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9446,10 +9446,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2624943.378824458</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9516,10 +9516,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>738.2231008925694</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9532,10 +9532,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>49.58256109568774</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9545,13 +9545,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>538672.0809108114</v>
+      </c>
+      <c r="E7">
         <v>1073542.928181151</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>93539.30284429077</v>
-      </c>
-      <c r="F7">
-        <v>538672.0809108114</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9561,10 +9561,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2860876.482599187</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9631,10 +9631,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1.150041440617316E-15</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9647,10 +9647,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>7.724223195269397E-17</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9660,13 +9660,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>3.126216825472996E-11</v>
+      </c>
+      <c r="E7">
         <v>0.2987014061063486</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1.457202767934546E-13</v>
-      </c>
-      <c r="F7">
-        <v>3.126216825472996E-11</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9676,10 +9676,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.7960071326600596</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9746,10 +9746,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>738.4617593547673</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9762,10 +9762,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>49.59859052875292</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9775,13 +9775,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>540346.1904959872</v>
+      </c>
+      <c r="E7">
         <v>1157980.651093668</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>93569.54295211847</v>
-      </c>
-      <c r="F7">
-        <v>540346.1904959872</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9791,10 +9791,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3085893.935915115</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9861,10 +9861,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>729.9563879544266</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9877,10 +9877,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>49.02732948776273</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9890,13 +9890,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>535306.6029406574</v>
+      </c>
+      <c r="E7">
         <v>1235075.720506477</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>92491.8382443442</v>
-      </c>
-      <c r="F7">
-        <v>535306.6029406574</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9906,10 +9906,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3291344.00709312</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9976,10 +9976,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>727.3753347403734</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9992,10 +9992,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>48.85397372509115</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10005,13 +10005,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>533278.5048851278</v>
+      </c>
+      <c r="E7">
         <v>1301777.268254347</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>92164.79630003948</v>
-      </c>
-      <c r="F7">
-        <v>533278.5048851278</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10021,10 +10021,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3469096.460484201</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10091,10 +10091,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>731.6630711367181</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10107,10 +10107,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>49.14195841640861</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10120,13 +10120,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>534506.8409670447</v>
+      </c>
+      <c r="E7">
         <v>1355357.41033217</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>92708.08988271016</v>
-      </c>
-      <c r="F7">
-        <v>534506.8409670447</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10136,10 +10136,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3611881.778500754</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10206,10 +10206,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>712.5621777798549</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10222,10 +10222,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>47.85905192011526</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10235,13 +10235,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>517938.7859849827</v>
+      </c>
+      <c r="E7">
         <v>1393571.99177513</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>90287.8401693865</v>
-      </c>
-      <c r="F7">
-        <v>517938.7859849827</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10251,10 +10251,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3713719.529439845</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10321,10 +10321,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>643.6824337678622</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10337,10 +10337,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>43.23276196576315</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10350,13 +10350,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>464984.7357592498</v>
+      </c>
+      <c r="E7">
         <v>1414848.644958668</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>81560.17609712304</v>
-      </c>
-      <c r="F7">
-        <v>464984.7357592498</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10366,10 +10366,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3770419.522633721</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10436,10 +10436,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>534.0735097178214</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10452,10 +10452,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>35.87090730858325</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10465,13 +10465,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>381056.1091588112</v>
+      </c>
+      <c r="E7">
         <v>1418478.550317159</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>67671.76982975309</v>
-      </c>
-      <c r="F7">
-        <v>381056.1091588112</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10481,10 +10481,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3780092.830148085</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10551,10 +10551,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>409.3119922537526</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10567,10 +10567,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>27.49133268598806</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10580,13 +10580,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>282693.7799286661</v>
+      </c>
+      <c r="E7">
         <v>1404774.421852619</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>51863.39787380275</v>
-      </c>
-      <c r="F7">
-        <v>282693.7799286661</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10596,10 +10596,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3743572.801177149</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10666,10 +10666,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>320.4413812979332</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10682,10 +10682,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>21.52236139262121</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10695,13 +10695,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>204657.5582031523</v>
+      </c>
+      <c r="E7">
         <v>1375151.787615109</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>40602.71667579826</v>
-      </c>
-      <c r="F7">
-        <v>204657.5582031523</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10711,10 +10711,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3664631.665785094</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10781,10 +10781,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>294.6925802026105</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10797,10 +10797,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>19.79294991537818</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10810,13 +10810,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>167026.7482310237</v>
+      </c>
+      <c r="E7">
         <v>1332096.353605535</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>37340.11909436155</v>
-      </c>
-      <c r="F7">
-        <v>167026.7482310237</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10826,10 +10826,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3549893.56321589</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10896,10 +10896,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>7.663442797366584E-14</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10912,10 +10912,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>5.147131270266666E-15</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10925,13 +10925,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>1.543327644013525E-09</v>
+      </c>
+      <c r="E7">
         <v>0.882264671798563</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>9.710250136931022E-12</v>
-      </c>
-      <c r="F7">
-        <v>1.543327644013525E-09</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10941,10 +10941,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2.351140494449505</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11011,10 +11011,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>301.9216467086914</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11027,10 +11027,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>20.2784882726433</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11040,13 +11040,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>152576.511130053</v>
+      </c>
+      <c r="E7">
         <v>1278999.12029918</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>38256.10484497846</v>
-      </c>
-      <c r="F7">
-        <v>152576.511130053</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11056,10 +11056,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3408395.145155797</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11126,10 +11126,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>303.3885822318334</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11142,10 +11142,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>20.37701461259621</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11155,13 +11155,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>139409.4901150398</v>
+      </c>
+      <c r="E7">
         <v>1219870.987902253</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>38441.97836476717</v>
-      </c>
-      <c r="F7">
-        <v>139409.4901150398</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11171,10 +11171,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3250825.029426029</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11241,10 +11241,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>288.6996152767747</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11257,10 +11257,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>19.39043399678894</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11270,13 +11270,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>123832.6814333463</v>
+      </c>
+      <c r="E7">
         <v>1158980.778396891</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>36580.75819051666</v>
-      </c>
-      <c r="F7">
-        <v>123832.6814333463</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11286,10 +11286,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3088559.167650417</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11356,10 +11356,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>267.4870737571029</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11372,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>17.96569920506775</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11385,13 +11385,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>112480.783982661</v>
+      </c>
+      <c r="E7">
         <v>1100481.135151422</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>33892.94424523831</v>
-      </c>
-      <c r="F7">
-        <v>112480.783982661</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11401,10 +11401,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2932663.907937835</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11471,10 +11471,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>251.5964534942592</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11487,10 +11487,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>16.89840985977608</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11500,13 +11500,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>110884.0886214672</v>
+      </c>
+      <c r="E7">
         <v>1048085.194298165</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>31879.46412066271</v>
-      </c>
-      <c r="F7">
-        <v>110884.0886214672</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11516,10 +11516,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2793034.358866422</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11586,10 +11586,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>243.401434677036</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11602,10 +11602,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>16.34799356869281</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11615,13 +11615,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>118624.8454100879</v>
+      </c>
+      <c r="E7">
         <v>1004834.130274927</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>30841.08379087883</v>
-      </c>
-      <c r="F7">
-        <v>118624.8454100879</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11631,10 +11631,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2677774.923343789</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11701,10 +11701,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>244.2225243777889</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11717,10 +11717,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>16.40314184325019</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11730,13 +11730,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>135762.3118778258</v>
+      </c>
+      <c r="E7">
         <v>972964.4335799197</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>30945.12301437129</v>
-      </c>
-      <c r="F7">
-        <v>135762.3118778258</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11746,10 +11746,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2592845.608093406</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11816,10 +11816,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>260.6893741539809</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11832,10 +11832,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>17.50913349278591</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11845,13 +11845,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>164593.2051143914</v>
+      </c>
+      <c r="E7">
         <v>953859.9990260743</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>33031.6164419602</v>
-      </c>
-      <c r="F7">
-        <v>164593.2051143914</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11861,10 +11861,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2541934.344003527</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11931,10 +11931,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>303.0128225203335</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11947,10 +11947,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>20.35177681005356</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11960,13 +11960,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>208412.1965303947</v>
+      </c>
+      <c r="E7">
         <v>948065.9297613524</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>38394.36633337966</v>
-      </c>
-      <c r="F7">
-        <v>208412.1965303947</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11976,10 +11976,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2526493.772357196</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -12046,10 +12046,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>375.3652825900165</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -12062,10 +12062,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>25.21131082828043</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -12075,13 +12075,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>267947.7461694928</v>
+      </c>
+      <c r="E7">
         <v>955345.1883066877</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>47562.05380591302</v>
-      </c>
-      <c r="F7">
-        <v>267947.7461694928</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -12091,10 +12091,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2545892.213757571</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
